--- a/data/US9414_01/OutputFiles/US9414_01_Output.xlsx
+++ b/data/US9414_01/OutputFiles/US9414_01_Output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="11100" windowHeight="6708"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="11100" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="US9414_01_Output" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <t>QuoteNumber</t>
   </si>
   <si>
-    <t>NI00158286</t>
+    <t>NI00161678</t>
   </si>
 </sst>
 </file>
@@ -28,10 +28,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="428" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="426" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="429" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="427" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
   <fonts count="6">
@@ -113,10 +113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="428" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="426" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="429" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="427" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1"/>
@@ -132,13 +132,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1" style="23"/>
+    <col min="1" max="1" width="12.875" customWidth="1" style="23"/>
     <col min="2" max="256" width="9.1484375" customWidth="1" style="15"/>
   </cols>
   <sheetData>
